--- a/Code/Results/Cases/Case_3_188/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_188/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.247899898357957</v>
+        <v>0.8981769492673095</v>
       </c>
       <c r="C2">
-        <v>0.1635587182574056</v>
+        <v>0.05328741999655051</v>
       </c>
       <c r="D2">
-        <v>0.06303491681747353</v>
+        <v>0.1055607384944341</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.414913155793556</v>
+        <v>1.970185246353921</v>
       </c>
       <c r="G2">
-        <v>0.000830970584367989</v>
+        <v>0.002542731307204313</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9729944770628833</v>
+        <v>1.626900772744179</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.265101314338438</v>
+        <v>0.6891005233039493</v>
       </c>
       <c r="L2">
-        <v>0.2049430956527303</v>
+        <v>0.2670590979544798</v>
       </c>
       <c r="M2">
-        <v>0.2763714307841312</v>
+        <v>0.2483824941078154</v>
       </c>
       <c r="N2">
-        <v>1.617185796430775</v>
+        <v>2.940559517220265</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.090764076678738</v>
+        <v>0.861019313806537</v>
       </c>
       <c r="C3">
-        <v>0.1418868882260114</v>
+        <v>0.04678299856288959</v>
       </c>
       <c r="D3">
-        <v>0.06409566159648783</v>
+        <v>0.105627226852441</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.333004078134238</v>
+        <v>1.958078412900875</v>
       </c>
       <c r="G3">
-        <v>0.0008368175699051683</v>
+        <v>0.002546479524074944</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9426334097511457</v>
+        <v>1.625926152842403</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.098720538862239</v>
+        <v>0.6472480543886832</v>
       </c>
       <c r="L3">
-        <v>0.1867993184976342</v>
+        <v>0.2637901141088577</v>
       </c>
       <c r="M3">
-        <v>0.244172001947554</v>
+        <v>0.2412460201105446</v>
       </c>
       <c r="N3">
-        <v>1.648911891786028</v>
+        <v>2.955287976808911</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9954864413165012</v>
+        <v>0.8387139670163322</v>
       </c>
       <c r="C4">
-        <v>0.1287034329075425</v>
+        <v>0.04277399513999569</v>
       </c>
       <c r="D4">
-        <v>0.06474868193479111</v>
+        <v>0.1056669051857178</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.284916323717326</v>
+        <v>1.951566145879241</v>
       </c>
       <c r="G4">
-        <v>0.0008405207926244055</v>
+        <v>0.002548904105026192</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9254138322837093</v>
+        <v>1.625970352547895</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9977508702895364</v>
+        <v>0.6219394267102132</v>
       </c>
       <c r="L4">
-        <v>0.1759188039886226</v>
+        <v>0.2619130450521112</v>
       </c>
       <c r="M4">
-        <v>0.2247027082083832</v>
+        <v>0.2370013628938921</v>
       </c>
       <c r="N4">
-        <v>1.670112606867285</v>
+        <v>2.965081986762755</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9569304217439765</v>
+        <v>0.8297526878392603</v>
       </c>
       <c r="C5">
-        <v>0.1233563560473101</v>
+        <v>0.0411363704537564</v>
       </c>
       <c r="D5">
-        <v>0.06501535908227396</v>
+        <v>0.1056827901799302</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.265838818479352</v>
+        <v>1.949143948640966</v>
       </c>
       <c r="G5">
-        <v>0.0008420590442183035</v>
+        <v>0.002549923208274265</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.918735005702608</v>
+        <v>1.626149952090621</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9568678025197812</v>
+        <v>0.6117237748372872</v>
       </c>
       <c r="L5">
-        <v>0.1715455590455335</v>
+        <v>0.2611808733482732</v>
       </c>
       <c r="M5">
-        <v>0.2168375022871771</v>
+        <v>0.2353061666233778</v>
       </c>
       <c r="N5">
-        <v>1.679169775694689</v>
+        <v>2.96926182628372</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9505436439751804</v>
+        <v>0.8282724308231764</v>
       </c>
       <c r="C6">
-        <v>0.1224698465457124</v>
+        <v>0.04086420467980645</v>
       </c>
       <c r="D6">
-        <v>0.06505967868522688</v>
+        <v>0.1056854108188432</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.262701334389007</v>
+        <v>1.948755730636364</v>
       </c>
       <c r="G6">
-        <v>0.0008423162507859313</v>
+        <v>0.002550094308754535</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9176458806297489</v>
+        <v>1.626189533901972</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9500940673913192</v>
+        <v>0.6100333821906929</v>
       </c>
       <c r="L6">
-        <v>0.1708229166077686</v>
+        <v>0.2610612757915405</v>
       </c>
       <c r="M6">
-        <v>0.2155354409343708</v>
+        <v>0.2350267677932436</v>
       </c>
       <c r="N6">
-        <v>1.680698519780385</v>
+        <v>2.969967280747369</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9949654080031962</v>
+        <v>0.8385925922116542</v>
       </c>
       <c r="C7">
-        <v>0.1286312251969974</v>
+        <v>0.04275192555833485</v>
       </c>
       <c r="D7">
-        <v>0.06475227596853372</v>
+        <v>0.1056671205635755</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.284656983491089</v>
+        <v>1.951532541638656</v>
       </c>
       <c r="G7">
-        <v>0.0008405414190253191</v>
+        <v>0.002548917723316576</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9253224142585168</v>
+        <v>1.625972120438099</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9971984885001177</v>
+        <v>0.6218012587698638</v>
       </c>
       <c r="L7">
-        <v>0.1758595852874336</v>
+        <v>0.2619030380819325</v>
       </c>
       <c r="M7">
-        <v>0.2245963662036559</v>
+        <v>0.2369783609897311</v>
       </c>
       <c r="N7">
-        <v>1.670233082850551</v>
+        <v>2.965137593591869</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.193449275813038</v>
+        <v>0.885259329862464</v>
       </c>
       <c r="C8">
-        <v>0.1560571735552543</v>
+        <v>0.05104781000660807</v>
       </c>
       <c r="D8">
-        <v>0.06340038627774192</v>
+        <v>0.1055839037900395</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.386191065790015</v>
+        <v>1.965819518759659</v>
       </c>
       <c r="G8">
-        <v>0.0008329635782009044</v>
+        <v>0.002543998188788316</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9622187642407383</v>
+        <v>1.626431341061469</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.207464034246726</v>
+        <v>0.6745890561430201</v>
       </c>
       <c r="L8">
-        <v>0.1986302792882952</v>
+        <v>0.2659049688755388</v>
       </c>
       <c r="M8">
-        <v>0.2652021344250173</v>
+        <v>0.2458933924613582</v>
       </c>
       <c r="N8">
-        <v>1.627758484411203</v>
+        <v>2.945482049076688</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.593821268407652</v>
+        <v>0.9808137101737771</v>
       </c>
       <c r="C9">
-        <v>0.2110950111191414</v>
+        <v>0.0671994854073148</v>
       </c>
       <c r="D9">
-        <v>0.0607567719717057</v>
+        <v>0.105411450020922</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.604533921403444</v>
+        <v>2.00115461717904</v>
       </c>
       <c r="G9">
-        <v>0.00081896712032208</v>
+        <v>0.002535323798408985</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.046798088118258</v>
+        <v>1.632432798296826</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.630991807599543</v>
+        <v>0.7811977434169251</v>
       </c>
       <c r="L9">
-        <v>0.2455734001474923</v>
+        <v>0.2747842584782063</v>
       </c>
       <c r="M9">
-        <v>0.3475660946619996</v>
+        <v>0.2644634012544884</v>
       </c>
       <c r="N9">
-        <v>1.558845716985857</v>
+        <v>2.91289684671635</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.897181772027039</v>
+        <v>1.053486809619557</v>
       </c>
       <c r="C10">
-        <v>0.2527215899974919</v>
+        <v>0.07900244529740519</v>
       </c>
       <c r="D10">
-        <v>0.05881020325389841</v>
+        <v>0.1052788575960548</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.779307903552137</v>
+        <v>2.031593030235044</v>
       </c>
       <c r="G10">
-        <v>0.0008091592638277303</v>
+        <v>0.002529537574253113</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.117812324227437</v>
+        <v>1.639957180516333</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.951665085894348</v>
+        <v>0.8614252583097937</v>
       </c>
       <c r="L10">
-        <v>0.2818028537682693</v>
+        <v>0.2819367720451424</v>
       </c>
       <c r="M10">
-        <v>0.4102705627395835</v>
+        <v>0.2787707694379975</v>
       </c>
       <c r="N10">
-        <v>1.518075334539191</v>
+        <v>2.89259378335511</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.037778202776849</v>
+        <v>1.087085707047436</v>
       </c>
       <c r="C11">
-        <v>0.2720221733933386</v>
+        <v>0.08435973594082213</v>
       </c>
       <c r="D11">
-        <v>0.05792175236931385</v>
+        <v>0.1052172093745902</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.862579517126505</v>
+        <v>2.046416453798997</v>
       </c>
       <c r="G11">
-        <v>0.0008047882757303401</v>
+        <v>0.002527031381026747</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.152393642007013</v>
+        <v>1.644058024262648</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.100269817330599</v>
+        <v>0.898340142443061</v>
       </c>
       <c r="L11">
-        <v>0.2987463034589126</v>
+        <v>0.2853272864154377</v>
       </c>
       <c r="M11">
-        <v>0.4394002990050865</v>
+        <v>0.2854240629363929</v>
       </c>
       <c r="N11">
-        <v>1.501938114164787</v>
+        <v>2.884148237409121</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.091445487608212</v>
+        <v>1.099886282529667</v>
       </c>
       <c r="C12">
-        <v>0.279392905331278</v>
+        <v>0.0863867953660673</v>
       </c>
       <c r="D12">
-        <v>0.05758473203105474</v>
+        <v>0.1051936698670417</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.894712989710925</v>
+        <v>2.052170379479364</v>
       </c>
       <c r="G12">
-        <v>0.0008031450202281586</v>
+        <v>0.002526100367929503</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.165848048447984</v>
+        <v>1.645708468201207</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.156994982708653</v>
+        <v>0.912379249309339</v>
       </c>
       <c r="L12">
-        <v>0.3052364577227422</v>
+        <v>0.2866308429793918</v>
       </c>
       <c r="M12">
-        <v>0.4505296230237548</v>
+        <v>0.2879643018494917</v>
       </c>
       <c r="N12">
-        <v>1.496198906969141</v>
+        <v>2.881063894214179</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.079867411592033</v>
+        <v>1.097126009966019</v>
       </c>
       <c r="C13">
-        <v>0.27780256453579</v>
+        <v>0.08595030298549489</v>
       </c>
       <c r="D13">
-        <v>0.05765734391495592</v>
+        <v>0.1051987482278935</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.8877647775155</v>
+        <v>2.050924912251034</v>
       </c>
       <c r="G13">
-        <v>0.000803498411998376</v>
+        <v>0.002526300077770752</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.162933886322591</v>
+        <v>1.645348676429478</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.144757105135255</v>
+        <v>0.9093529973035572</v>
       </c>
       <c r="L13">
-        <v>0.3038352669717028</v>
+        <v>0.2863492256137476</v>
       </c>
       <c r="M13">
-        <v>0.4481281476305341</v>
+        <v>0.2874162923520274</v>
       </c>
       <c r="N13">
-        <v>1.497417994457876</v>
+        <v>2.881723099063223</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.042184573718089</v>
+        <v>1.088137267878267</v>
       </c>
       <c r="C14">
-        <v>0.2726272664701952</v>
+        <v>0.08452653551975686</v>
       </c>
       <c r="D14">
-        <v>0.05789403812052107</v>
+        <v>0.1052152766840635</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.86521076982271</v>
+        <v>2.046887013691602</v>
       </c>
       <c r="G14">
-        <v>0.0008046528513513886</v>
+        <v>0.002526954425068566</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.15349315200271</v>
+        <v>1.644191852052288</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.104927216547253</v>
+        <v>0.8994939409245148</v>
       </c>
       <c r="L14">
-        <v>0.2992787230220131</v>
+        <v>0.2854341373025733</v>
       </c>
       <c r="M14">
-        <v>0.4403138709795584</v>
+        <v>0.2856326336698771</v>
       </c>
       <c r="N14">
-        <v>1.501458345994251</v>
+        <v>2.883892205064171</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.019159946480613</v>
+        <v>1.082641478477001</v>
       </c>
       <c r="C15">
-        <v>0.2694656254989667</v>
+        <v>0.08365422708298809</v>
       </c>
       <c r="D15">
-        <v>0.05803893939739524</v>
+        <v>0.1052253753966816</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.851475805467899</v>
+        <v>2.044432001175949</v>
       </c>
       <c r="G15">
-        <v>0.0008053614999882181</v>
+        <v>0.002527357576922926</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.147758205187145</v>
+        <v>1.643495968360554</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.080590951540984</v>
+        <v>0.893462829227559</v>
       </c>
       <c r="L15">
-        <v>0.296497584998221</v>
+        <v>0.2848761764403349</v>
       </c>
       <c r="M15">
-        <v>0.4355405909720531</v>
+        <v>0.2845427963260647</v>
       </c>
       <c r="N15">
-        <v>1.503982359302825</v>
+        <v>2.885235669700634</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.888050139873201</v>
+        <v>1.051301883872981</v>
       </c>
       <c r="C16">
-        <v>0.2514683852940891</v>
+        <v>0.07865210093538622</v>
       </c>
       <c r="D16">
-        <v>0.05886819276432043</v>
+        <v>0.1052828593837969</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.773946591703535</v>
+        <v>2.03064395375597</v>
       </c>
       <c r="G16">
-        <v>0.000809446651035489</v>
+        <v>0.002529703887445834</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.115600820156807</v>
+        <v>1.639702827584102</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.942013279691395</v>
+        <v>0.8590212141149323</v>
       </c>
       <c r="L16">
-        <v>0.2807054949984717</v>
+        <v>0.2817179442090207</v>
       </c>
       <c r="M16">
-        <v>0.4083800033694587</v>
+        <v>0.2783388712879855</v>
       </c>
       <c r="N16">
-        <v>1.519180518582303</v>
+        <v>2.893161636818732</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.808319783660579</v>
+        <v>1.032214115718347</v>
       </c>
       <c r="C17">
-        <v>0.2405275504178377</v>
+        <v>0.07558046280912833</v>
       </c>
       <c r="D17">
-        <v>0.05937604582538825</v>
+        <v>0.1053177806329657</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.72738964942215</v>
+        <v>2.022435729572692</v>
       </c>
       <c r="G17">
-        <v>0.0008119752286114537</v>
+        <v>0.002531175478074486</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.096478144056796</v>
+        <v>1.637549538491939</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.85773983507346</v>
+        <v>0.837999704372919</v>
       </c>
       <c r="L17">
-        <v>0.2711411703284483</v>
+        <v>0.279815487823754</v>
       </c>
       <c r="M17">
-        <v>0.3918807244016094</v>
+        <v>0.274570021605868</v>
       </c>
       <c r="N17">
-        <v>1.529138358991048</v>
+        <v>2.898226505015785</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.762701904815145</v>
+        <v>1.021286131145757</v>
       </c>
       <c r="C18">
-        <v>0.2342683456607517</v>
+        <v>0.07381260926945288</v>
       </c>
       <c r="D18">
-        <v>0.05966788186890781</v>
+        <v>0.1053377412879062</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.700961982904403</v>
+        <v>2.017806511494584</v>
       </c>
       <c r="G18">
-        <v>0.0008134382031288514</v>
+        <v>0.002532033761938989</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.085691497705724</v>
+        <v>1.636374833454902</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.809520965375526</v>
+        <v>0.8259481251744774</v>
       </c>
       <c r="L18">
-        <v>0.265683067348121</v>
+        <v>0.278734123231132</v>
       </c>
       <c r="M18">
-        <v>0.3824469888243769</v>
+        <v>0.2724159106222004</v>
       </c>
       <c r="N18">
-        <v>1.535090993491579</v>
+        <v>2.901214072577091</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.747296310562433</v>
+        <v>1.017594833019473</v>
       </c>
       <c r="C19">
-        <v>0.2321545923677775</v>
+        <v>0.07321384799539032</v>
       </c>
       <c r="D19">
-        <v>0.05976665137236381</v>
+        <v>0.1053444782346649</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.692072550577635</v>
+        <v>2.016254923306846</v>
       </c>
       <c r="G19">
-        <v>0.0008139350505982154</v>
+        <v>0.002532326402676182</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.082074848870811</v>
+        <v>1.635988056358364</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.793236614449285</v>
+        <v>0.8218744412001229</v>
       </c>
       <c r="L19">
-        <v>0.2638422212628626</v>
+        <v>0.2783702044694536</v>
       </c>
       <c r="M19">
-        <v>0.3792622087796502</v>
+        <v>0.2716889081673486</v>
       </c>
       <c r="N19">
-        <v>1.537144394944747</v>
+        <v>2.902238383859341</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.816781912986357</v>
+        <v>1.03424078548602</v>
       </c>
       <c r="C20">
-        <v>0.2416886691987372</v>
+        <v>0.07590756010813493</v>
       </c>
       <c r="D20">
-        <v>0.05932201283876815</v>
+        <v>0.1053140761786828</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.732309015319132</v>
+        <v>2.023299993007527</v>
       </c>
       <c r="G20">
-        <v>0.0008117051743362085</v>
+        <v>0.002531017597473867</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.098491601141347</v>
+        <v>1.637772155324541</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.866684291263084</v>
+        <v>0.8402333984373058</v>
       </c>
       <c r="L20">
-        <v>0.2721548016807134</v>
+        <v>0.2800166749429422</v>
       </c>
       <c r="M20">
-        <v>0.3936312028843645</v>
+        <v>0.2749698115608439</v>
       </c>
       <c r="N20">
-        <v>1.52805485336404</v>
+        <v>2.897679641114607</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.053240914597268</v>
+        <v>1.090775380090349</v>
       </c>
       <c r="C21">
-        <v>0.2741456123495709</v>
+        <v>0.08494477409693957</v>
       </c>
       <c r="D21">
-        <v>0.05782453241561569</v>
+        <v>0.1052104271838328</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.871818640529099</v>
+        <v>2.048069224873174</v>
       </c>
       <c r="G21">
-        <v>0.0008043134495785661</v>
+        <v>0.002526761738895185</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.15625610707778</v>
+        <v>1.644528991679536</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.116613458276731</v>
+        <v>0.9023881498882531</v>
       </c>
       <c r="L21">
-        <v>0.3006150177445903</v>
+        <v>0.2857023880657152</v>
       </c>
       <c r="M21">
-        <v>0.442606342630846</v>
+        <v>0.2861559737931003</v>
       </c>
       <c r="N21">
-        <v>1.500261299179115</v>
+        <v>2.883251996365814</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.210294609241942</v>
+        <v>1.128175082312737</v>
       </c>
       <c r="C22">
-        <v>0.2957247779591228</v>
+        <v>0.09084165345410611</v>
       </c>
       <c r="D22">
-        <v>0.05684236576454538</v>
+        <v>0.1051415505304174</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.966526696599033</v>
+        <v>2.065077044027447</v>
       </c>
       <c r="G22">
-        <v>0.0007995515653660412</v>
+        <v>0.00252408532862686</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.196119290359306</v>
+        <v>1.649513558747174</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.282621611276454</v>
+        <v>0.9433610040334202</v>
       </c>
       <c r="L22">
-        <v>0.319650948197193</v>
+        <v>0.2895328076176611</v>
       </c>
       <c r="M22">
-        <v>0.4751948194649884</v>
+        <v>0.2935878867899362</v>
       </c>
       <c r="N22">
-        <v>1.484276070993829</v>
+        <v>2.874486088136365</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.126223196910871</v>
+        <v>1.10817294355553</v>
       </c>
       <c r="C23">
-        <v>0.284170586270946</v>
+        <v>0.08769521530071245</v>
       </c>
       <c r="D23">
-        <v>0.05736693844552043</v>
+        <v>0.1051784162725333</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.915635311557779</v>
+        <v>2.055924598732815</v>
       </c>
       <c r="G23">
-        <v>0.0008020871420840594</v>
+        <v>0.002525504197397034</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.174639113738436</v>
+        <v>1.646801157931606</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.193754985234222</v>
+        <v>0.92146089418776</v>
       </c>
       <c r="L23">
-        <v>0.3094485970134713</v>
+        <v>0.287477975519522</v>
       </c>
       <c r="M23">
-        <v>0.4577445506800899</v>
+        <v>0.2896102668322911</v>
       </c>
       <c r="N23">
-        <v>1.492599319338154</v>
+        <v>2.879103870587116</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.812955502510249</v>
+        <v>1.03332438532243</v>
       </c>
       <c r="C24">
-        <v>0.24116363209356</v>
+        <v>0.07575968543287104</v>
       </c>
       <c r="D24">
-        <v>0.05934644156196534</v>
+        <v>0.1053157513226317</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.730083919897282</v>
+        <v>2.022908979789108</v>
       </c>
       <c r="G24">
-        <v>0.00081182723696992</v>
+        <v>0.002531088937109253</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.097580674074237</v>
+        <v>1.637671313229347</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.862639787351327</v>
+        <v>0.8392234395500395</v>
       </c>
       <c r="L24">
-        <v>0.2716964131889767</v>
+        <v>0.2799256796739513</v>
       </c>
       <c r="M24">
-        <v>0.3928396507009566</v>
+        <v>0.2747890271133215</v>
       </c>
       <c r="N24">
-        <v>1.528543998771937</v>
+        <v>2.897926642447416</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.484079527865163</v>
+        <v>0.9545305116469365</v>
       </c>
       <c r="C25">
-        <v>0.1960297928204398</v>
+        <v>0.06284174423691979</v>
       </c>
       <c r="D25">
-        <v>0.06147204460393141</v>
+        <v>0.1054591209063691</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.543148547748203</v>
+        <v>1.99081038805268</v>
       </c>
       <c r="G25">
-        <v>0.0008226661325884115</v>
+        <v>0.002537566948542063</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.022468696881639</v>
+        <v>1.63026260147668</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.514954059117684</v>
+        <v>0.7520244873197441</v>
       </c>
       <c r="L25">
-        <v>0.2325949539534946</v>
+        <v>0.2722717398388852</v>
       </c>
       <c r="M25">
-        <v>0.3249399970871281</v>
+        <v>0.2593231880477589</v>
       </c>
       <c r="N25">
-        <v>1.575841817249866</v>
+        <v>2.921073591394816</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_188/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_188/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8981769492673095</v>
+        <v>1.247899898358156</v>
       </c>
       <c r="C2">
-        <v>0.05328741999655051</v>
+        <v>0.1635587182575193</v>
       </c>
       <c r="D2">
-        <v>0.1055607384944341</v>
+        <v>0.06303491681746642</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.970185246353921</v>
+        <v>1.414913155793585</v>
       </c>
       <c r="G2">
-        <v>0.002542731307204313</v>
+        <v>0.0008309705843957578</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.626900772744179</v>
+        <v>0.972994477062862</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6891005233039493</v>
+        <v>1.265101314338438</v>
       </c>
       <c r="L2">
-        <v>0.2670590979544798</v>
+        <v>0.2049430956527232</v>
       </c>
       <c r="M2">
-        <v>0.2483824941078154</v>
+        <v>0.2763714307841454</v>
       </c>
       <c r="N2">
-        <v>2.940559517220265</v>
+        <v>1.617185796430832</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.861019313806537</v>
+        <v>1.090764076678823</v>
       </c>
       <c r="C3">
-        <v>0.04678299856288959</v>
+        <v>0.1418868882261108</v>
       </c>
       <c r="D3">
-        <v>0.105627226852441</v>
+        <v>0.0640956615964825</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.958078412900875</v>
+        <v>1.333004078134238</v>
       </c>
       <c r="G3">
-        <v>0.002546479524074944</v>
+        <v>0.0008368175699025038</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.625926152842403</v>
+        <v>0.9426334097511457</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6472480543886832</v>
+        <v>1.098720538862239</v>
       </c>
       <c r="L3">
-        <v>0.2637901141088577</v>
+        <v>0.1867993184977621</v>
       </c>
       <c r="M3">
-        <v>0.2412460201105446</v>
+        <v>0.2441720019475646</v>
       </c>
       <c r="N3">
-        <v>2.955287976808911</v>
+        <v>1.648911891785914</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8387139670163322</v>
+        <v>0.9954864413167002</v>
       </c>
       <c r="C4">
-        <v>0.04277399513999569</v>
+        <v>0.1287034329072867</v>
       </c>
       <c r="D4">
-        <v>0.1056669051857178</v>
+        <v>0.06474868193483196</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.951566145879241</v>
+        <v>1.284916323717326</v>
       </c>
       <c r="G4">
-        <v>0.002548904105026192</v>
+        <v>0.0008405207926239454</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.625970352547895</v>
+        <v>0.9254138322837093</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6219394267102132</v>
+        <v>0.9977508702895079</v>
       </c>
       <c r="L4">
-        <v>0.2619130450521112</v>
+        <v>0.17591880398858</v>
       </c>
       <c r="M4">
-        <v>0.2370013628938921</v>
+        <v>0.2247027082083832</v>
       </c>
       <c r="N4">
-        <v>2.965081986762755</v>
+        <v>1.670112606867278</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8297526878392603</v>
+        <v>0.9569304217440049</v>
       </c>
       <c r="C5">
-        <v>0.0411363704537564</v>
+        <v>0.1233563560472106</v>
       </c>
       <c r="D5">
-        <v>0.1056827901799302</v>
+        <v>0.06501535908235567</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.949143948640966</v>
+        <v>1.265838818479367</v>
       </c>
       <c r="G5">
-        <v>0.002549923208274265</v>
+        <v>0.0008420590442551037</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.626149952090621</v>
+        <v>0.9187350057026293</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6117237748372872</v>
+        <v>0.9568678025197244</v>
       </c>
       <c r="L5">
-        <v>0.2611808733482732</v>
+        <v>0.1715455590455406</v>
       </c>
       <c r="M5">
-        <v>0.2353061666233778</v>
+        <v>0.2168375022871807</v>
       </c>
       <c r="N5">
-        <v>2.96926182628372</v>
+        <v>1.679169775694717</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8282724308231764</v>
+        <v>0.9505436439751236</v>
       </c>
       <c r="C6">
-        <v>0.04086420467980645</v>
+        <v>0.1224698465458403</v>
       </c>
       <c r="D6">
-        <v>0.1056854108188432</v>
+        <v>0.06505967868522866</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.948755730636364</v>
+        <v>1.262701334389007</v>
       </c>
       <c r="G6">
-        <v>0.002550094308754535</v>
+        <v>0.0008423162507539373</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.626189533901972</v>
+        <v>0.917645880629756</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6100333821906929</v>
+        <v>0.9500940673915466</v>
       </c>
       <c r="L6">
-        <v>0.2610612757915405</v>
+        <v>0.1708229166077757</v>
       </c>
       <c r="M6">
-        <v>0.2350267677932436</v>
+        <v>0.2155354409343708</v>
       </c>
       <c r="N6">
-        <v>2.969967280747369</v>
+        <v>1.680698519780393</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8385925922116542</v>
+        <v>0.9949654080029973</v>
       </c>
       <c r="C7">
-        <v>0.04275192555833485</v>
+        <v>0.1286312251968695</v>
       </c>
       <c r="D7">
-        <v>0.1056671205635755</v>
+        <v>0.06475227596854083</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.951532541638656</v>
+        <v>1.284656983491075</v>
       </c>
       <c r="G7">
-        <v>0.002548917723316576</v>
+        <v>0.0008405414190598389</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.625972120438099</v>
+        <v>0.9253224142585239</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6218012587698638</v>
+        <v>0.9971984885000893</v>
       </c>
       <c r="L7">
-        <v>0.2619030380819325</v>
+        <v>0.1758595852874549</v>
       </c>
       <c r="M7">
-        <v>0.2369783609897311</v>
+        <v>0.2245963662036274</v>
       </c>
       <c r="N7">
-        <v>2.965137593591869</v>
+        <v>1.670233082850537</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.885259329862464</v>
+        <v>1.193449275813009</v>
       </c>
       <c r="C8">
-        <v>0.05104781000660807</v>
+        <v>0.1560571735554959</v>
       </c>
       <c r="D8">
-        <v>0.1055839037900395</v>
+        <v>0.06340038627782185</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.965819518759659</v>
+        <v>1.386191065790001</v>
       </c>
       <c r="G8">
-        <v>0.002543998188788316</v>
+        <v>0.0008329635782004884</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.626431341061469</v>
+        <v>0.9622187642407098</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6745890561430201</v>
+        <v>1.207464034246726</v>
       </c>
       <c r="L8">
-        <v>0.2659049688755388</v>
+        <v>0.1986302792883734</v>
       </c>
       <c r="M8">
-        <v>0.2458933924613582</v>
+        <v>0.2652021344250386</v>
       </c>
       <c r="N8">
-        <v>2.945482049076688</v>
+        <v>1.62775848441116</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9808137101737771</v>
+        <v>1.593821268407766</v>
       </c>
       <c r="C9">
-        <v>0.0671994854073148</v>
+        <v>0.2110950111189709</v>
       </c>
       <c r="D9">
-        <v>0.105411450020922</v>
+        <v>0.06075677197181761</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.00115461717904</v>
+        <v>1.604533921403458</v>
       </c>
       <c r="G9">
-        <v>0.002535323798408985</v>
+        <v>0.0008189671203213072</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.632432798296826</v>
+        <v>1.046798088118265</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7811977434169251</v>
+        <v>1.630991807599429</v>
       </c>
       <c r="L9">
-        <v>0.2747842584782063</v>
+        <v>0.2455734001476486</v>
       </c>
       <c r="M9">
-        <v>0.2644634012544884</v>
+        <v>0.3475660946620067</v>
       </c>
       <c r="N9">
-        <v>2.91289684671635</v>
+        <v>1.558845716985914</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.053486809619557</v>
+        <v>1.897181772027125</v>
       </c>
       <c r="C10">
-        <v>0.07900244529740519</v>
+        <v>0.252721589997364</v>
       </c>
       <c r="D10">
-        <v>0.1052788575960548</v>
+        <v>0.05881020325389485</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.031593030235044</v>
+        <v>1.779307903552137</v>
       </c>
       <c r="G10">
-        <v>0.002529537574253113</v>
+        <v>0.0008091592637806216</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.639957180516333</v>
+        <v>1.11781232422743</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8614252583097937</v>
+        <v>1.951665085894319</v>
       </c>
       <c r="L10">
-        <v>0.2819367720451424</v>
+        <v>0.2818028537683261</v>
       </c>
       <c r="M10">
-        <v>0.2787707694379975</v>
+        <v>0.4102705627395977</v>
       </c>
       <c r="N10">
-        <v>2.89259378335511</v>
+        <v>1.518075334539262</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.087085707047436</v>
+        <v>2.037778202776849</v>
       </c>
       <c r="C11">
-        <v>0.08435973594082213</v>
+        <v>0.272022173393168</v>
       </c>
       <c r="D11">
-        <v>0.1052172093745902</v>
+        <v>0.05792175236907227</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.046416453798997</v>
+        <v>1.862579517126505</v>
       </c>
       <c r="G11">
-        <v>0.002527031381026747</v>
+        <v>0.0008047882757001608</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.644058024262648</v>
+        <v>1.152393642006999</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.898340142443061</v>
+        <v>2.100269817330656</v>
       </c>
       <c r="L11">
-        <v>0.2853272864154377</v>
+        <v>0.29874630345887</v>
       </c>
       <c r="M11">
-        <v>0.2854240629363929</v>
+        <v>0.4394002990050936</v>
       </c>
       <c r="N11">
-        <v>2.884148237409121</v>
+        <v>1.501938114164744</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.099886282529667</v>
+        <v>2.091445487608098</v>
       </c>
       <c r="C12">
-        <v>0.0863867953660673</v>
+        <v>0.2793929053310791</v>
       </c>
       <c r="D12">
-        <v>0.1051936698670417</v>
+        <v>0.05758473203104408</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.052170379479364</v>
+        <v>1.894712989710925</v>
       </c>
       <c r="G12">
-        <v>0.002526100367929503</v>
+        <v>0.0008031450203049253</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.645708468201207</v>
+        <v>1.165848048447984</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.912379249309339</v>
+        <v>2.156994982708653</v>
       </c>
       <c r="L12">
-        <v>0.2866308429793918</v>
+        <v>0.3052364577226854</v>
       </c>
       <c r="M12">
-        <v>0.2879643018494917</v>
+        <v>0.4505296230237548</v>
       </c>
       <c r="N12">
-        <v>2.881063894214179</v>
+        <v>1.496198906969127</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.097126009966019</v>
+        <v>2.079867411591977</v>
       </c>
       <c r="C13">
-        <v>0.08595030298549489</v>
+        <v>0.2778025645356195</v>
       </c>
       <c r="D13">
-        <v>0.1051987482278935</v>
+        <v>0.05765734391464328</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.050924912251034</v>
+        <v>1.887764777515486</v>
       </c>
       <c r="G13">
-        <v>0.002526300077770752</v>
+        <v>0.0008034984119675195</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.645348676429478</v>
+        <v>1.162933886322591</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9093529973035572</v>
+        <v>2.144757105135284</v>
       </c>
       <c r="L13">
-        <v>0.2863492256137476</v>
+        <v>0.3038352669718591</v>
       </c>
       <c r="M13">
-        <v>0.2874162923520274</v>
+        <v>0.448128147630527</v>
       </c>
       <c r="N13">
-        <v>2.881723099063223</v>
+        <v>1.497417994457805</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.088137267878267</v>
+        <v>2.042184573718089</v>
       </c>
       <c r="C14">
-        <v>0.08452653551975686</v>
+        <v>0.2726272664709057</v>
       </c>
       <c r="D14">
-        <v>0.1052152766840635</v>
+        <v>0.05789403812071825</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.046887013691602</v>
+        <v>1.86521076982271</v>
       </c>
       <c r="G14">
-        <v>0.002526954425068566</v>
+        <v>0.0008046528512723717</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.644191852052288</v>
+        <v>1.15349315200271</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8994939409245148</v>
+        <v>2.104927216547281</v>
       </c>
       <c r="L14">
-        <v>0.2854341373025733</v>
+        <v>0.2992787230219704</v>
       </c>
       <c r="M14">
-        <v>0.2856326336698771</v>
+        <v>0.4403138709795869</v>
       </c>
       <c r="N14">
-        <v>2.883892205064171</v>
+        <v>1.50145834599418</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.082641478477001</v>
+        <v>2.019159946480727</v>
       </c>
       <c r="C15">
-        <v>0.08365422708298809</v>
+        <v>0.269465625499123</v>
       </c>
       <c r="D15">
-        <v>0.1052253753966816</v>
+        <v>0.05803893939716431</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.044432001175949</v>
+        <v>1.851475805467913</v>
       </c>
       <c r="G15">
-        <v>0.002527357576922926</v>
+        <v>0.0008053615000909231</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.643495968360554</v>
+        <v>1.147758205187131</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.893462829227559</v>
+        <v>2.080590951540984</v>
       </c>
       <c r="L15">
-        <v>0.2848761764403349</v>
+        <v>0.2964975849981641</v>
       </c>
       <c r="M15">
-        <v>0.2845427963260647</v>
+        <v>0.435540590972046</v>
       </c>
       <c r="N15">
-        <v>2.885235669700634</v>
+        <v>1.503982359302853</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.051301883872981</v>
+        <v>1.888050139873314</v>
       </c>
       <c r="C16">
-        <v>0.07865210093538622</v>
+        <v>0.2514683852940749</v>
       </c>
       <c r="D16">
-        <v>0.1052828593837969</v>
+        <v>0.05886819276453537</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.03064395375597</v>
+        <v>1.773946591703492</v>
       </c>
       <c r="G16">
-        <v>0.002529703887445834</v>
+        <v>0.0008094466510346766</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.639702827584102</v>
+        <v>1.115600820156786</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8590212141149323</v>
+        <v>1.942013279691338</v>
       </c>
       <c r="L16">
-        <v>0.2817179442090207</v>
+        <v>0.2807054949984433</v>
       </c>
       <c r="M16">
-        <v>0.2783388712879855</v>
+        <v>0.4083800033694374</v>
       </c>
       <c r="N16">
-        <v>2.893161636818732</v>
+        <v>1.519180518582303</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.032214115718347</v>
+        <v>1.808319783660608</v>
       </c>
       <c r="C17">
-        <v>0.07558046280912833</v>
+        <v>0.2405275504177666</v>
       </c>
       <c r="D17">
-        <v>0.1053177806329657</v>
+        <v>0.05937604582534206</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.022435729572692</v>
+        <v>1.727389649422165</v>
       </c>
       <c r="G17">
-        <v>0.002531175478074486</v>
+        <v>0.0008119752286254822</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.637549538491939</v>
+        <v>1.096478144056782</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.837999704372919</v>
+        <v>1.85773983507346</v>
       </c>
       <c r="L17">
-        <v>0.279815487823754</v>
+        <v>0.2711411703284909</v>
       </c>
       <c r="M17">
-        <v>0.274570021605868</v>
+        <v>0.3918807244016165</v>
       </c>
       <c r="N17">
-        <v>2.898226505015785</v>
+        <v>1.529138358991034</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.021286131145757</v>
+        <v>1.762701904815316</v>
       </c>
       <c r="C18">
-        <v>0.07381260926945288</v>
+        <v>0.234268345660567</v>
       </c>
       <c r="D18">
-        <v>0.1053377412879062</v>
+        <v>0.05966788186880834</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.017806511494584</v>
+        <v>1.700961982904403</v>
       </c>
       <c r="G18">
-        <v>0.002532033761938989</v>
+        <v>0.0008134382030987007</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.636374833454902</v>
+        <v>1.085691497705724</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8259481251744774</v>
+        <v>1.809520965375583</v>
       </c>
       <c r="L18">
-        <v>0.278734123231132</v>
+        <v>0.265683067348192</v>
       </c>
       <c r="M18">
-        <v>0.2724159106222004</v>
+        <v>0.3824469888243627</v>
       </c>
       <c r="N18">
-        <v>2.901214072577091</v>
+        <v>1.535090993491565</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.017594833019473</v>
+        <v>1.747296310562376</v>
       </c>
       <c r="C19">
-        <v>0.07321384799539032</v>
+        <v>0.2321545923676638</v>
       </c>
       <c r="D19">
-        <v>0.1053444782346649</v>
+        <v>0.05976665137218262</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.016254923306846</v>
+        <v>1.692072550577635</v>
       </c>
       <c r="G19">
-        <v>0.002532326402676182</v>
+        <v>0.0008139350506560783</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.635988056358364</v>
+        <v>1.082074848870846</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8218744412001229</v>
+        <v>1.793236614449171</v>
       </c>
       <c r="L19">
-        <v>0.2783702044694536</v>
+        <v>0.2638422212628484</v>
       </c>
       <c r="M19">
-        <v>0.2716889081673486</v>
+        <v>0.3792622087796573</v>
       </c>
       <c r="N19">
-        <v>2.902238383859341</v>
+        <v>1.537144394944818</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.03424078548602</v>
+        <v>1.816781912986443</v>
       </c>
       <c r="C20">
-        <v>0.07590756010813493</v>
+        <v>0.2416886691988083</v>
       </c>
       <c r="D20">
-        <v>0.1053140761786828</v>
+        <v>0.05932201283889071</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.023299993007527</v>
+        <v>1.73230901531916</v>
       </c>
       <c r="G20">
-        <v>0.002531017597473867</v>
+        <v>0.0008117051744120918</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.637772155324541</v>
+        <v>1.098491601141376</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8402333984373058</v>
+        <v>1.866684291263113</v>
       </c>
       <c r="L20">
-        <v>0.2800166749429422</v>
+        <v>0.2721548016806139</v>
       </c>
       <c r="M20">
-        <v>0.2749698115608439</v>
+        <v>0.3936312028843645</v>
       </c>
       <c r="N20">
-        <v>2.897679641114607</v>
+        <v>1.528054853364154</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.090775380090349</v>
+        <v>2.053240914597268</v>
       </c>
       <c r="C21">
-        <v>0.08494477409693957</v>
+        <v>0.2741456123496988</v>
       </c>
       <c r="D21">
-        <v>0.1052104271838328</v>
+        <v>0.05782453241583418</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.048069224873174</v>
+        <v>1.871818640529114</v>
       </c>
       <c r="G21">
-        <v>0.002526761738895185</v>
+        <v>0.0008043134496061091</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.644528991679536</v>
+        <v>1.156256107077795</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9023881498882531</v>
+        <v>2.116613458276646</v>
       </c>
       <c r="L21">
-        <v>0.2857023880657152</v>
+        <v>0.3006150177445903</v>
       </c>
       <c r="M21">
-        <v>0.2861559737931003</v>
+        <v>0.442606342630846</v>
       </c>
       <c r="N21">
-        <v>2.883251996365814</v>
+        <v>1.500261299179186</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.128175082312737</v>
+        <v>2.210294609241942</v>
       </c>
       <c r="C22">
-        <v>0.09084165345410611</v>
+        <v>0.2957247779593786</v>
       </c>
       <c r="D22">
-        <v>0.1051415505304174</v>
+        <v>0.05684236576463064</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.065077044027447</v>
+        <v>1.966526696599061</v>
       </c>
       <c r="G22">
-        <v>0.00252408532862686</v>
+        <v>0.0007995515652072459</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.649513558747174</v>
+        <v>1.19611929035932</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9433610040334202</v>
+        <v>2.282621611276454</v>
       </c>
       <c r="L22">
-        <v>0.2895328076176611</v>
+        <v>0.319650948197193</v>
       </c>
       <c r="M22">
-        <v>0.2935878867899362</v>
+        <v>0.4751948194649813</v>
       </c>
       <c r="N22">
-        <v>2.874486088136365</v>
+        <v>1.484276070993786</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.10817294355553</v>
+        <v>2.126223196910871</v>
       </c>
       <c r="C23">
-        <v>0.08769521530071245</v>
+        <v>0.2841705862710029</v>
       </c>
       <c r="D23">
-        <v>0.1051784162725333</v>
+        <v>0.05736693844560392</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.055924598732815</v>
+        <v>1.91563531155775</v>
       </c>
       <c r="G23">
-        <v>0.002525504197397034</v>
+        <v>0.0008020871420720558</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.646801157931606</v>
+        <v>1.174639113738422</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.92146089418776</v>
+        <v>2.193754985234136</v>
       </c>
       <c r="L23">
-        <v>0.287477975519522</v>
+        <v>0.3094485970134855</v>
       </c>
       <c r="M23">
-        <v>0.2896102668322911</v>
+        <v>0.4577445506800757</v>
       </c>
       <c r="N23">
-        <v>2.879103870587116</v>
+        <v>1.492599319338169</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.03332438532243</v>
+        <v>1.812955502510221</v>
       </c>
       <c r="C24">
-        <v>0.07575968543287104</v>
+        <v>0.2411636320935742</v>
       </c>
       <c r="D24">
-        <v>0.1053157513226317</v>
+        <v>0.05934644156197777</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.022908979789108</v>
+        <v>1.730083919897282</v>
       </c>
       <c r="G24">
-        <v>0.002531088937109253</v>
+        <v>0.0008118272369417296</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.637671313229347</v>
+        <v>1.09758067407423</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8392234395500395</v>
+        <v>1.862639787351299</v>
       </c>
       <c r="L24">
-        <v>0.2799256796739513</v>
+        <v>0.2716964131890052</v>
       </c>
       <c r="M24">
-        <v>0.2747890271133215</v>
+        <v>0.3928396507009779</v>
       </c>
       <c r="N24">
-        <v>2.897926642447416</v>
+        <v>1.52854399877188</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9545305116469365</v>
+        <v>1.484079527865219</v>
       </c>
       <c r="C25">
-        <v>0.06284174423691979</v>
+        <v>0.1960297928202692</v>
       </c>
       <c r="D25">
-        <v>0.1054591209063691</v>
+        <v>0.06147204460388345</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.99081038805268</v>
+        <v>1.543148547748217</v>
       </c>
       <c r="G25">
-        <v>0.002537566948542063</v>
+        <v>0.0008226661325872426</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.63026260147668</v>
+        <v>1.022468696881653</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7520244873197441</v>
+        <v>1.514954059117656</v>
       </c>
       <c r="L25">
-        <v>0.2722717398388852</v>
+        <v>0.2325949539535088</v>
       </c>
       <c r="M25">
-        <v>0.2593231880477589</v>
+        <v>0.3249399970871494</v>
       </c>
       <c r="N25">
-        <v>2.921073591394816</v>
+        <v>1.575841817249923</v>
       </c>
       <c r="O25">
         <v>0</v>
